--- a/AppExcelParser/Person.xlsx
+++ b/AppExcelParser/Person.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Адрес</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Иванов Р.О</t>
   </si>
@@ -34,24 +25,6 @@
   </si>
   <si>
     <t>АнодийД.Л.</t>
-  </si>
-  <si>
-    <t>ул. Читателя, д. 15, кв.56</t>
-  </si>
-  <si>
-    <t>ул. Лермонтова д. 94</t>
-  </si>
-  <si>
-    <t>ул. Кварталы, д.46, кв. 106</t>
-  </si>
-  <si>
-    <t>8(911)111-11-11</t>
-  </si>
-  <si>
-    <t>8(911)111-11-12</t>
-  </si>
-  <si>
-    <t>8(911)111-11-13</t>
   </si>
 </sst>
 </file>
@@ -390,61 +363,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>89111111111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>89111111112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="B3">
+        <v>89111111113</v>
       </c>
     </row>
   </sheetData>

--- a/AppExcelParser/Person.xlsx
+++ b/AppExcelParser/Person.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
